--- a/Data/Analysis/qualitative_analysis/data/background_qualitative_analysis.xlsx
+++ b/Data/Analysis/qualitative_analysis/data/background_qualitative_analysis.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/Documents/1. Studium/TUM/Bachelor-Thesis/Practical/Data/Analysis/qualitative_analysis/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168A168-0E82-BF46-8CCC-07FB4A846527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="background_colors" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>value</t>
   </si>
@@ -161,13 +167,61 @@
   </si>
   <si>
     <t>[(np.uint8(0), np.uint8(0), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(249), np.uint8(249), np.uint8(249)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(76), np.uint8(66), np.uint8(56)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(0), np.uint8(176), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(211), np.uint8(241), np.uint8(247)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(249), np.uint8(249), np.uint8(249)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(34), np.uint8(34), np.uint8(34)), (np.uint8(169), np.uint8(217), np.uint8(56)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(58), np.uint8(49), np.uint8(28)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(0), np.uint8(0), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255))]</t>
+  </si>
+  <si>
+    <t>[(np.uint8(0), np.uint8(0), np.uint8(0)), (np.uint8(0), np.uint8(128), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(248), np.uint8(248), np.uint8(248)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(64), np.uint8(58), np.uint8(52)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(240), np.uint8(240), np.uint8(240)), (np.uint8(7), np.uint8(193), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(220), np.uint8(245), np.uint8(245)), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(191), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(68), np.uint8(68), np.uint8(68)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(42), np.uint8(35), np.uint8(26)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(248), np.uint8(248), np.uint8(248)), (np.uint8(0), np.uint8(0), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(224), np.uint8(224), np.uint8(224)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(244), np.uint8(244), np.uint8(244))]</t>
+  </si>
+  <si>
+    <t>qwen_reason_3</t>
+  </si>
+  <si>
+    <t>qwen_reason_2</t>
+  </si>
+  <si>
+    <t>qwen_reason_1</t>
+  </si>
+  <si>
+    <t>[(np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(0), np.uint8(128), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None), (np.uint8(249), np.uint8(249), np.uint8(249)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(249), np.uint8(249), np.uint8(249)), (0, 0, None), (np.uint8(248), np.uint8(248), np.uint8(248)), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(0), np.uint8(204), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(245), np.uint8(240), np.uint8(232)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(80), np.uint8(175), np.uint8(76)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(135), np.uint8(77), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(244), np.uint8(244), np.uint8(244)), (0, 0, None), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(240), np.uint8(240), np.uint8(240)), None, (np.uint8(0), np.uint8(0), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(0), np.uint8(0), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(224), np.uint8(224), np.uint8(224)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255))]</t>
+  </si>
+  <si>
+    <t>qwen_few_shot_3</t>
+  </si>
+  <si>
+    <t>qwen_few_shot_2</t>
+  </si>
+  <si>
+    <t>qwen_few_shot_1</t>
+  </si>
+  <si>
+    <t>[(np.uint8(26), np.uint8(26), np.uint8(26)), (np.uint8(0), np.uint8(128), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None), (0, 0, None), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(36), np.uint8(191), np.uint8(251)), (0, 0, None), (np.uint8(245), np.uint8(245), np.uint8(245)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(224), np.uint8(224), np.uint8(224)), (0, 0, None), (np.uint8(34), np.uint8(34), np.uint8(34)), (np.uint8(80), np.uint8(175), np.uint8(76)), (0, 0, None), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(244), np.uint8(244), np.uint8(244)), (0, 0, None), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(107), np.uint8(75), np.uint8(42)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(0), np.uint8(0), np.uint8(0)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(0), np.uint8(0), np.uint8(0)), (np.uint8(255), np.uint8(123), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None)]</t>
+  </si>
+  <si>
+    <t>qwen_zero_shot_3</t>
+  </si>
+  <si>
+    <t>qwen_zero_shot_2</t>
+  </si>
+  <si>
+    <t>qwen_zero_shot_1</t>
+  </si>
+  <si>
+    <t>[(np.uint8(0), np.uint8(0), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None), (0, 0, None), (np.uint8(249), np.uint8(249), np.uint8(249)), (np.uint8(43), np.uint8(0), np.uint8(214)), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(36), np.uint8(191), np.uint8(251)), (0, 0, None), (0, 0, None), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None), (0, 0, None), (np.uint8(80), np.uint8(175), np.uint8(76)), (np.uint8(126), np.uint8(35), np.uint8(26)), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(239), np.uint8(239), np.uint8(239)), (np.uint8(51), np.uint8(51), np.uint8(51)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(244), np.uint8(244), np.uint8(244)), (np.uint8(107), np.uint8(75), np.uint8(42)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(0), np.uint8(0), np.uint8(0)), (np.uint8(0), np.uint8(0), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(0), np.uint8(0), np.uint8(0)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (0, 0, None), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(255), np.uint8(255), np.uint8(255)), (np.uint8(232), np.uint8(241), np.uint8(244))]</t>
+  </si>
+  <si>
+    <t>qwen_naive_3</t>
+  </si>
+  <si>
+    <t>qwen_naive_2</t>
+  </si>
+  <si>
+    <t>qwen_naive_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,17 +280,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +336,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -308,6 +370,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -342,9 +405,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -517,19 +581,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -537,7 +603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -545,7 +611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -553,7 +619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -561,7 +627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -569,7 +635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -577,7 +643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -585,7 +651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -593,7 +659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -601,7 +667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -609,7 +675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -617,7 +683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -625,7 +691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -633,7 +699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -641,7 +707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -649,7 +715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -657,7 +723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -665,7 +731,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -673,7 +739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -681,7 +747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -689,7 +755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -697,7 +763,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -705,7 +771,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -713,12 +779,108 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
